--- a/Example export.xlsx
+++ b/Example export.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NikAntonelli\Planview\Development\LeanKitUtils\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{175B445F-13FF-4FCD-BAD5-577CBFBB002E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC79A7F2-D40F-4889-B2FF-F03DBE9DC476}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1920" yWindow="2460" windowWidth="24630" windowHeight="11385" xr2:uid="{29CD428F-0A07-48A0-8573-8048C934683D}"/>
+    <workbookView xWindow="5685" yWindow="-20115" windowWidth="30360" windowHeight="15630" xr2:uid="{29CD428F-0A07-48A0-8573-8048C934683D}"/>
   </bookViews>
   <sheets>
     <sheet name="Config" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="100">
   <si>
     <t>username</t>
   </si>
@@ -76,9 +76,6 @@
     <t>Group</t>
   </si>
   <si>
-    <t>Item Sheet</t>
-  </si>
-  <si>
     <t>Item Row</t>
   </si>
   <si>
@@ -175,9 +172,6 @@
     <t>Feature 1</t>
   </si>
   <si>
-    <t>Parent</t>
-  </si>
-  <si>
     <t>index</t>
   </si>
   <si>
@@ -335,24 +329,6 @@
   </si>
   <si>
     <t>https://demoarea.leankit.com/card/1613631793</t>
-  </si>
-  <si>
-    <t>https://demoarea.leankit.com/card/1613632502</t>
-  </si>
-  <si>
-    <t>https://demoarea.leankit.com/card/1613628391</t>
-  </si>
-  <si>
-    <t>https://demoarea.leankit.com/card/1613634793</t>
-  </si>
-  <si>
-    <t>https://demoarea.leankit.com/card/1613634795</t>
-  </si>
-  <si>
-    <t>https://demoarea.leankit.com/card/1613635802</t>
-  </si>
-  <si>
-    <t>https://demoarea.leankit.com/card/1613634990</t>
   </si>
   <si>
     <t>Backlog|Next Sprint Backlog|Committed,Expedited</t>
@@ -751,7 +727,7 @@
         <v>6</v>
       </c>
       <c r="E2" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>7</v>
@@ -765,7 +741,7 @@
         <v>6</v>
       </c>
       <c r="E3" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>5</v>
@@ -779,13 +755,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:F26"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="25.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>12</v>
       </c>
@@ -801,509 +782,239 @@
       <c r="E1" t="s">
         <v>16</v>
       </c>
-      <c r="F1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2">
-        <v>2</v>
+      <c r="B2" t="str">
+        <f>'1587279792'!B2</f>
+        <v>1613635796</v>
+      </c>
+      <c r="C2" t="s">
+        <v>31</v>
       </c>
       <c r="D2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>0</v>
+      </c>
+      <c r="B3" t="str">
+        <f>'1587279792'!B2</f>
+        <v>1613635796</v>
+      </c>
+      <c r="C3" t="s">
         <v>32</v>
       </c>
-      <c r="E2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>0</v>
-      </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3">
-        <v>2</v>
-      </c>
       <c r="D3" t="s">
-        <v>33</v>
+        <v>88</v>
       </c>
       <c r="E3" t="s">
-        <v>90</v>
-      </c>
-      <c r="F3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>0</v>
+      </c>
+      <c r="B4" t="str">
+        <f>'1587279792'!B3</f>
+        <v>1613635800</v>
+      </c>
+      <c r="C4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>0</v>
+      </c>
+      <c r="B5" t="str">
+        <f>'1587279792'!B4</f>
+        <v>1613634988</v>
+      </c>
+      <c r="C5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D5" t="s">
+        <v>88</v>
+      </c>
+      <c r="E5" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>0</v>
+      </c>
+      <c r="B6" t="str">
+        <f>'1587279792'!B5</f>
+        <v>1613634791</v>
+      </c>
+      <c r="C6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>0</v>
+      </c>
+      <c r="B7" t="str">
+        <f>'1587279792'!B6</f>
+        <v>1613635391</v>
+      </c>
+      <c r="C7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7" t="s">
+        <v>88</v>
+      </c>
+      <c r="E7" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>0</v>
-      </c>
-      <c r="B4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4">
-        <v>3</v>
-      </c>
-      <c r="D4" t="s">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>0</v>
+      </c>
+      <c r="B8" t="str">
+        <f>'1587279792'!B7</f>
+        <v>1613631793</v>
+      </c>
+      <c r="C8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>0</v>
+      </c>
+      <c r="B9" t="str">
+        <f>'1587279792'!B8</f>
+        <v>1613632502</v>
+      </c>
+      <c r="C9" t="s">
         <v>32</v>
       </c>
-      <c r="E4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>0</v>
-      </c>
-      <c r="B5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5">
-        <v>3</v>
-      </c>
-      <c r="D5" t="s">
-        <v>33</v>
-      </c>
-      <c r="E5" t="s">
-        <v>90</v>
-      </c>
-      <c r="F5" t="s">
+      <c r="D9" t="s">
+        <v>88</v>
+      </c>
+      <c r="E9" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>0</v>
-      </c>
-      <c r="B6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6">
-        <v>4</v>
-      </c>
-      <c r="D6" t="s">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>0</v>
+      </c>
+      <c r="B10" t="str">
+        <f>'1587279792'!B9</f>
+        <v>1613628391</v>
+      </c>
+      <c r="C10" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>0</v>
+      </c>
+      <c r="B11" t="str">
+        <f>'1587279792'!B10</f>
+        <v>1613634793</v>
+      </c>
+      <c r="C11" t="s">
         <v>32</v>
       </c>
-      <c r="E6" t="s">
-        <v>11</v>
-      </c>
-      <c r="F6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>0</v>
-      </c>
-      <c r="B7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7">
-        <v>4</v>
-      </c>
-      <c r="D7" t="s">
-        <v>33</v>
-      </c>
-      <c r="E7" t="s">
-        <v>90</v>
-      </c>
-      <c r="F7" t="s">
+      <c r="D11" t="s">
+        <v>88</v>
+      </c>
+      <c r="E11" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>0</v>
-      </c>
-      <c r="B8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8">
-        <v>5</v>
-      </c>
-      <c r="D8" t="s">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>0</v>
+      </c>
+      <c r="B12" t="str">
+        <f>'1587279792'!B11</f>
+        <v>1613634795</v>
+      </c>
+      <c r="C12" t="s">
+        <v>31</v>
+      </c>
+      <c r="D12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>0</v>
+      </c>
+      <c r="B13" t="str">
+        <f>'1587279792'!B12</f>
+        <v>1613635802</v>
+      </c>
+      <c r="C13" t="s">
         <v>32</v>
       </c>
-      <c r="E8" t="s">
-        <v>11</v>
-      </c>
-      <c r="F8" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>0</v>
-      </c>
-      <c r="B9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9">
-        <v>5</v>
-      </c>
-      <c r="D9" t="s">
-        <v>33</v>
-      </c>
-      <c r="E9" t="s">
-        <v>90</v>
-      </c>
-      <c r="F9" t="s">
+      <c r="D13" t="s">
+        <v>88</v>
+      </c>
+      <c r="E13" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>0</v>
-      </c>
-      <c r="B10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10">
-        <v>6</v>
-      </c>
-      <c r="D10" t="s">
-        <v>32</v>
-      </c>
-      <c r="E10" t="s">
-        <v>11</v>
-      </c>
-      <c r="F10" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>0</v>
-      </c>
-      <c r="B11" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11">
-        <v>6</v>
-      </c>
-      <c r="D11" t="s">
-        <v>33</v>
-      </c>
-      <c r="E11" t="s">
-        <v>90</v>
-      </c>
-      <c r="F11" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>0</v>
-      </c>
-      <c r="B12" t="s">
-        <v>7</v>
-      </c>
-      <c r="C12">
-        <v>7</v>
-      </c>
-      <c r="D12" t="s">
-        <v>32</v>
-      </c>
-      <c r="E12" t="s">
-        <v>11</v>
-      </c>
-      <c r="F12" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>0</v>
-      </c>
-      <c r="B13" t="s">
-        <v>7</v>
-      </c>
-      <c r="C13">
-        <v>7</v>
-      </c>
-      <c r="D13" t="s">
-        <v>33</v>
-      </c>
-      <c r="E13" t="s">
-        <v>90</v>
-      </c>
-      <c r="F13" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>0</v>
       </c>
-      <c r="B14" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14">
-        <v>8</v>
+      <c r="B14" t="str">
+        <f>'1587279792'!B13</f>
+        <v>1613634990</v>
+      </c>
+      <c r="C14" t="s">
+        <v>31</v>
       </c>
       <c r="D14" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="E14" t="s">
         <v>11</v>
-      </c>
-      <c r="F14" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>0</v>
-      </c>
-      <c r="B15" t="s">
-        <v>7</v>
-      </c>
-      <c r="C15">
-        <v>8</v>
-      </c>
-      <c r="D15" t="s">
-        <v>33</v>
-      </c>
-      <c r="E15" t="s">
-        <v>90</v>
-      </c>
-      <c r="F15" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>0</v>
-      </c>
-      <c r="B16" t="s">
-        <v>7</v>
-      </c>
-      <c r="C16">
-        <v>9</v>
-      </c>
-      <c r="D16" t="s">
-        <v>32</v>
-      </c>
-      <c r="E16" t="s">
-        <v>11</v>
-      </c>
-      <c r="F16" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>0</v>
-      </c>
-      <c r="B17" t="s">
-        <v>7</v>
-      </c>
-      <c r="C17">
-        <v>9</v>
-      </c>
-      <c r="D17" t="s">
-        <v>33</v>
-      </c>
-      <c r="E17" t="s">
-        <v>90</v>
-      </c>
-      <c r="F17" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>0</v>
-      </c>
-      <c r="B18" t="s">
-        <v>7</v>
-      </c>
-      <c r="C18">
-        <v>10</v>
-      </c>
-      <c r="D18" t="s">
-        <v>32</v>
-      </c>
-      <c r="E18" t="s">
-        <v>11</v>
-      </c>
-      <c r="F18" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>0</v>
-      </c>
-      <c r="B19" t="s">
-        <v>7</v>
-      </c>
-      <c r="C19">
-        <v>10</v>
-      </c>
-      <c r="D19" t="s">
-        <v>33</v>
-      </c>
-      <c r="E19" t="s">
-        <v>90</v>
-      </c>
-      <c r="F19" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>0</v>
-      </c>
-      <c r="B20" t="s">
-        <v>7</v>
-      </c>
-      <c r="C20">
-        <v>11</v>
-      </c>
-      <c r="D20" t="s">
-        <v>32</v>
-      </c>
-      <c r="E20" t="s">
-        <v>11</v>
-      </c>
-      <c r="F20" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>0</v>
-      </c>
-      <c r="B21" t="s">
-        <v>7</v>
-      </c>
-      <c r="C21">
-        <v>11</v>
-      </c>
-      <c r="D21" t="s">
-        <v>33</v>
-      </c>
-      <c r="E21" t="s">
-        <v>90</v>
-      </c>
-      <c r="F21" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>0</v>
-      </c>
-      <c r="B22" t="s">
-        <v>7</v>
-      </c>
-      <c r="C22">
-        <v>12</v>
-      </c>
-      <c r="D22" t="s">
-        <v>32</v>
-      </c>
-      <c r="E22" t="s">
-        <v>11</v>
-      </c>
-      <c r="F22" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>0</v>
-      </c>
-      <c r="B23" t="s">
-        <v>7</v>
-      </c>
-      <c r="C23">
-        <v>12</v>
-      </c>
-      <c r="D23" t="s">
-        <v>33</v>
-      </c>
-      <c r="E23" t="s">
-        <v>90</v>
-      </c>
-      <c r="F23" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>0</v>
-      </c>
-      <c r="B24" t="s">
-        <v>7</v>
-      </c>
-      <c r="C24">
-        <v>13</v>
-      </c>
-      <c r="D24" t="s">
-        <v>32</v>
-      </c>
-      <c r="E24" t="s">
-        <v>11</v>
-      </c>
-      <c r="F24" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>0</v>
-      </c>
-      <c r="B25" t="s">
-        <v>7</v>
-      </c>
-      <c r="C25">
-        <v>13</v>
-      </c>
-      <c r="D25" t="s">
-        <v>33</v>
-      </c>
-      <c r="E25" t="s">
-        <v>90</v>
-      </c>
-      <c r="F25" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <v>0</v>
-      </c>
-      <c r="B26" t="s">
-        <v>7</v>
-      </c>
-      <c r="C26">
-        <v>7</v>
-      </c>
-      <c r="D26" t="s">
-        <v>33</v>
-      </c>
-      <c r="E26" t="s">
-        <v>46</v>
-      </c>
-      <c r="F26">
-        <f>'1587279792'!A6</f>
-        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1321,6 +1032,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="2" max="2" width="16.5703125" customWidth="1"/>
     <col min="3" max="3" width="23.28515625" customWidth="1"/>
     <col min="4" max="4" width="20.85546875" customWidth="1"/>
     <col min="10" max="10" width="39.5703125" customWidth="1"/>
@@ -1328,93 +1040,93 @@
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" t="s">
         <v>18</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>19</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>20</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>21</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>22</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>23</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>24</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>25</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>26</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>27</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>28</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>29</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
+        <v>45</v>
+      </c>
+      <c r="P1" t="s">
         <v>30</v>
       </c>
-      <c r="O1" t="s">
-        <v>47</v>
-      </c>
-      <c r="P1" t="s">
-        <v>31</v>
-      </c>
       <c r="Q1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="R1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="S1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="T1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I2">
         <v>11</v>
       </c>
       <c r="J2" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="K2" t="s">
         <v>11</v>
       </c>
       <c r="L2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="M2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N2" t="s">
         <v>11</v>
@@ -1423,10 +1135,10 @@
         <v>0</v>
       </c>
       <c r="P2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="Q2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="S2">
         <v>1</v>
@@ -1437,31 +1149,31 @@
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D3" t="s">
+        <v>68</v>
+      </c>
+      <c r="F3" t="s">
+        <v>37</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3" t="s">
+        <v>34</v>
+      </c>
+      <c r="K3" t="s">
+        <v>11</v>
+      </c>
+      <c r="L3" t="s">
+        <v>69</v>
+      </c>
+      <c r="M3" t="s">
         <v>40</v>
-      </c>
-      <c r="D3" t="s">
-        <v>70</v>
-      </c>
-      <c r="F3" t="s">
-        <v>38</v>
-      </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
-      <c r="J3" t="s">
-        <v>35</v>
-      </c>
-      <c r="K3" t="s">
-        <v>11</v>
-      </c>
-      <c r="L3" t="s">
-        <v>71</v>
-      </c>
-      <c r="M3" t="s">
-        <v>41</v>
       </c>
       <c r="N3" t="s">
         <v>11</v>
@@ -1472,31 +1184,31 @@
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D4" t="s">
+        <v>66</v>
+      </c>
+      <c r="F4" t="s">
+        <v>37</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4" t="s">
+        <v>34</v>
+      </c>
+      <c r="K4" t="s">
+        <v>11</v>
+      </c>
+      <c r="L4" t="s">
+        <v>67</v>
+      </c>
+      <c r="M4" t="s">
         <v>40</v>
-      </c>
-      <c r="D4" t="s">
-        <v>68</v>
-      </c>
-      <c r="F4" t="s">
-        <v>38</v>
-      </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
-      <c r="J4" t="s">
-        <v>35</v>
-      </c>
-      <c r="K4" t="s">
-        <v>11</v>
-      </c>
-      <c r="L4" t="s">
-        <v>69</v>
-      </c>
-      <c r="M4" t="s">
-        <v>41</v>
       </c>
       <c r="N4" t="s">
         <v>11</v>
@@ -1507,31 +1219,31 @@
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K5" t="s">
         <v>11</v>
       </c>
       <c r="L5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="M5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="N5" t="s">
         <v>11</v>
@@ -1542,31 +1254,31 @@
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D6" t="s">
+        <v>61</v>
+      </c>
+      <c r="F6" t="s">
+        <v>37</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6" t="s">
         <v>34</v>
       </c>
-      <c r="D6" t="s">
-        <v>63</v>
-      </c>
-      <c r="F6" t="s">
-        <v>38</v>
-      </c>
-      <c r="I6">
-        <v>0</v>
-      </c>
-      <c r="J6" t="s">
+      <c r="K6" t="s">
+        <v>11</v>
+      </c>
+      <c r="L6" t="s">
+        <v>43</v>
+      </c>
+      <c r="M6" t="s">
         <v>35</v>
-      </c>
-      <c r="K6" t="s">
-        <v>11</v>
-      </c>
-      <c r="L6" t="s">
-        <v>44</v>
-      </c>
-      <c r="M6" t="s">
-        <v>36</v>
       </c>
       <c r="N6" t="s">
         <v>11</v>
@@ -1577,31 +1289,31 @@
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D7" t="s">
+        <v>62</v>
+      </c>
+      <c r="F7" t="s">
+        <v>37</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7" t="s">
+        <v>34</v>
+      </c>
+      <c r="K7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L7" t="s">
+        <v>63</v>
+      </c>
+      <c r="M7" t="s">
         <v>40</v>
-      </c>
-      <c r="D7" t="s">
-        <v>64</v>
-      </c>
-      <c r="F7" t="s">
-        <v>38</v>
-      </c>
-      <c r="I7">
-        <v>0</v>
-      </c>
-      <c r="J7" t="s">
-        <v>35</v>
-      </c>
-      <c r="K7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L7" t="s">
-        <v>65</v>
-      </c>
-      <c r="M7" t="s">
-        <v>41</v>
       </c>
       <c r="N7" t="s">
         <v>11</v>
@@ -1612,37 +1324,37 @@
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D8" t="s">
+        <v>72</v>
+      </c>
+      <c r="F8" t="s">
+        <v>37</v>
+      </c>
+      <c r="G8" t="s">
+        <v>59</v>
+      </c>
+      <c r="H8" t="s">
+        <v>60</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8" t="s">
         <v>34</v>
       </c>
-      <c r="D8" t="s">
-        <v>74</v>
-      </c>
-      <c r="F8" t="s">
-        <v>38</v>
-      </c>
-      <c r="G8" t="s">
-        <v>61</v>
-      </c>
-      <c r="H8" t="s">
-        <v>62</v>
-      </c>
-      <c r="I8">
-        <v>0</v>
-      </c>
-      <c r="J8" t="s">
+      <c r="K8" t="s">
+        <v>11</v>
+      </c>
+      <c r="L8" t="s">
+        <v>41</v>
+      </c>
+      <c r="M8" t="s">
         <v>35</v>
-      </c>
-      <c r="K8" t="s">
-        <v>11</v>
-      </c>
-      <c r="L8" t="s">
-        <v>42</v>
-      </c>
-      <c r="M8" t="s">
-        <v>36</v>
       </c>
       <c r="N8" t="s">
         <v>11</v>
@@ -1653,69 +1365,69 @@
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C9" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D9" t="s">
+        <v>56</v>
+      </c>
+      <c r="F9" t="s">
+        <v>37</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9" t="s">
+        <v>34</v>
+      </c>
+      <c r="K9" t="s">
+        <v>11</v>
+      </c>
+      <c r="L9" t="s">
+        <v>57</v>
+      </c>
+      <c r="M9" t="s">
+        <v>52</v>
+      </c>
+      <c r="N9" t="s">
         <v>58</v>
-      </c>
-      <c r="F9" t="s">
-        <v>38</v>
-      </c>
-      <c r="I9">
-        <v>0</v>
-      </c>
-      <c r="J9" t="s">
-        <v>35</v>
-      </c>
-      <c r="K9" t="s">
-        <v>11</v>
-      </c>
-      <c r="L9" t="s">
-        <v>59</v>
-      </c>
-      <c r="M9" t="s">
-        <v>54</v>
-      </c>
-      <c r="N9" t="s">
-        <v>60</v>
       </c>
       <c r="O9">
         <v>7</v>
       </c>
       <c r="P9" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C10" t="s">
+        <v>33</v>
+      </c>
+      <c r="D10" t="s">
+        <v>55</v>
+      </c>
+      <c r="F10" t="s">
+        <v>37</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10" t="s">
         <v>34</v>
       </c>
-      <c r="D10" t="s">
-        <v>57</v>
-      </c>
-      <c r="F10" t="s">
+      <c r="K10" t="s">
+        <v>11</v>
+      </c>
+      <c r="L10" t="s">
         <v>38</v>
       </c>
-      <c r="I10">
-        <v>0</v>
-      </c>
-      <c r="J10" t="s">
+      <c r="M10" t="s">
         <v>35</v>
-      </c>
-      <c r="K10" t="s">
-        <v>11</v>
-      </c>
-      <c r="L10" t="s">
-        <v>39</v>
-      </c>
-      <c r="M10" t="s">
-        <v>36</v>
       </c>
       <c r="N10" t="s">
         <v>11</v>
@@ -1724,36 +1436,36 @@
         <v>8</v>
       </c>
       <c r="R10" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C11" t="s">
+        <v>39</v>
+      </c>
+      <c r="D11" t="s">
+        <v>53</v>
+      </c>
+      <c r="F11" t="s">
+        <v>42</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11" t="s">
+        <v>34</v>
+      </c>
+      <c r="K11" t="s">
+        <v>11</v>
+      </c>
+      <c r="L11" t="s">
+        <v>54</v>
+      </c>
+      <c r="M11" t="s">
         <v>40</v>
-      </c>
-      <c r="D11" t="s">
-        <v>55</v>
-      </c>
-      <c r="F11" t="s">
-        <v>43</v>
-      </c>
-      <c r="I11">
-        <v>0</v>
-      </c>
-      <c r="J11" t="s">
-        <v>35</v>
-      </c>
-      <c r="K11" t="s">
-        <v>11</v>
-      </c>
-      <c r="L11" t="s">
-        <v>56</v>
-      </c>
-      <c r="M11" t="s">
-        <v>41</v>
       </c>
       <c r="N11" t="s">
         <v>11</v>
@@ -1764,31 +1476,31 @@
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C12" t="s">
+        <v>48</v>
+      </c>
+      <c r="D12" t="s">
+        <v>49</v>
+      </c>
+      <c r="F12" t="s">
+        <v>37</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12" t="s">
+        <v>34</v>
+      </c>
+      <c r="K12" t="s">
         <v>50</v>
       </c>
-      <c r="D12" t="s">
+      <c r="L12" t="s">
         <v>51</v>
       </c>
-      <c r="F12" t="s">
-        <v>38</v>
-      </c>
-      <c r="I12">
-        <v>0</v>
-      </c>
-      <c r="J12" t="s">
-        <v>35</v>
-      </c>
-      <c r="K12" t="s">
+      <c r="M12" t="s">
         <v>52</v>
-      </c>
-      <c r="L12" t="s">
-        <v>53</v>
-      </c>
-      <c r="M12" t="s">
-        <v>54</v>
       </c>
       <c r="N12" t="s">
         <v>11</v>
@@ -1799,31 +1511,31 @@
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C13" t="s">
+        <v>33</v>
+      </c>
+      <c r="D13" t="s">
+        <v>47</v>
+      </c>
+      <c r="F13" t="s">
+        <v>37</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13" t="s">
         <v>34</v>
       </c>
-      <c r="D13" t="s">
-        <v>49</v>
-      </c>
-      <c r="F13" t="s">
-        <v>38</v>
-      </c>
-      <c r="I13">
-        <v>0</v>
-      </c>
-      <c r="J13" t="s">
+      <c r="K13" t="s">
+        <v>11</v>
+      </c>
+      <c r="L13" t="s">
+        <v>36</v>
+      </c>
+      <c r="M13" t="s">
         <v>35</v>
-      </c>
-      <c r="K13" t="s">
-        <v>11</v>
-      </c>
-      <c r="L13" t="s">
-        <v>37</v>
-      </c>
-      <c r="M13" t="s">
-        <v>36</v>
       </c>
       <c r="N13" t="s">
         <v>11</v>
